--- a/Pull Request Here/3238353862/A Dog Said... Animal Prosthetics 2 - 3238353862.xlsx
+++ b/Pull Request Here/3238353862/A Dog Said... Animal Prosthetics 2 - 3238353862.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943F3B38-7DF9-457D-A3BE-F5CEF77161F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A9FE35-93F3-4D07-9A07-AE54D6BC86EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5015" uniqueCount="1896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5014" uniqueCount="1894">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -4556,10 +4556,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(편의를 위해 비워두는게 좋아보임)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SimpleAnimalProsthetics.label</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6223,10 +6219,6 @@
   </si>
   <si>
     <t>연구 작업대에서 새로운 보철물 기술을 연구합니다. 한 번에 하나의 연구만 할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>추출 툴로 안나옵니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -6313,12 +6305,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6326,6 +6312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6360,14 +6352,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -6379,8 +6370,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
@@ -6978,8 +6971,8 @@
       <c r="F7" s="3" t="s">
         <v>1355</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>1894</v>
+      <c r="G7" s="14" t="s">
+        <v>1892</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -8341,7 +8334,7 @@
       <c r="F87" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="6" t="s">
         <v>1408</v>
       </c>
     </row>
@@ -8361,7 +8354,7 @@
       <c r="F88" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="6" t="s">
         <v>1409</v>
       </c>
     </row>
@@ -8891,7 +8884,7 @@
       <c r="F119" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="7" t="s">
         <v>1431</v>
       </c>
     </row>
@@ -9605,41 +9598,39 @@
       <c r="E161" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="G161" s="7" t="s">
-        <v>1464</v>
+      <c r="F161" s="15" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>1886</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="C162" s="3" t="s">
         <v>1887</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>1888</v>
-      </c>
-      <c r="F162" s="14" t="s">
-        <v>1892</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>1893</v>
+      <c r="E162" s="16"/>
+      <c r="F162" s="13" t="s">
+        <v>1891</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C163" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E163" s="16"/>
+      <c r="F163" s="13" t="s">
         <v>1890</v>
       </c>
-      <c r="F163" s="14" t="s">
-        <v>1891</v>
-      </c>
-      <c r="G163" s="6"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
@@ -9649,18 +9640,18 @@
         <v>412</v>
       </c>
       <c r="C164" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="F164" s="3" t="s">
         <v>1466</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>412</v>
@@ -9669,10 +9660,10 @@
         <v>416</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="F165" s="3" t="s">
         <v>1469</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
@@ -9689,9 +9680,9 @@
         <v>420</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="G166" s="9"/>
+        <v>1470</v>
+      </c>
+      <c r="G166" s="8"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
@@ -9704,10 +9695,10 @@
         <v>422</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>1472</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
@@ -9718,16 +9709,16 @@
         <v>425</v>
       </c>
       <c r="C168" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="F168" s="3" t="s">
         <v>1475</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="G168" s="9" t="s">
         <v>1476</v>
-      </c>
-      <c r="G168" s="10" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
@@ -9735,7 +9726,7 @@
         <v>428</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>430</v>
@@ -9744,10 +9735,10 @@
         <v>431</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1479</v>
-      </c>
-      <c r="G169" s="7" t="s">
-        <v>1464</v>
+        <v>1478</v>
+      </c>
+      <c r="F169" s="15" t="s">
+        <v>1478</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
@@ -9755,7 +9746,7 @@
         <v>433</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>434</v>
@@ -9764,10 +9755,10 @@
         <v>431</v>
       </c>
       <c r="E170" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>1480</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9775,7 +9766,7 @@
         <v>436</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>437</v>
@@ -9783,14 +9774,14 @@
       <c r="D171" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E171" s="10" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G171" s="14" t="s">
         <v>1482</v>
-      </c>
-      <c r="F171" s="12" t="s">
-        <v>1895</v>
-      </c>
-      <c r="G171" s="15" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
@@ -9804,16 +9795,16 @@
         <v>462</v>
       </c>
       <c r="D172" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="3" t="s">
         <v>1485</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="G172" s="6" t="s">
         <v>1486</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
@@ -9833,7 +9824,7 @@
         <v>466</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
@@ -9850,10 +9841,10 @@
         <v>441</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F174" s="3" t="s">
         <v>1488</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
@@ -9861,7 +9852,7 @@
         <v>470</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>462</v>
@@ -9873,7 +9864,7 @@
         <v>463</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
@@ -9881,7 +9872,7 @@
         <v>471</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>468</v>
@@ -9890,10 +9881,10 @@
         <v>441</v>
       </c>
       <c r="E176" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F176" s="3" t="s">
         <v>1491</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -9901,7 +9892,7 @@
         <v>473</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>474</v>
@@ -9913,7 +9904,7 @@
         <v>475</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -9921,7 +9912,7 @@
         <v>476</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>477</v>
@@ -9933,7 +9924,7 @@
         <v>478</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -9941,7 +9932,7 @@
         <v>479</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>480</v>
@@ -9953,7 +9944,7 @@
         <v>481</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -9973,7 +9964,7 @@
         <v>484</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -9993,7 +9984,7 @@
         <v>487</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -10010,10 +10001,10 @@
         <v>441</v>
       </c>
       <c r="E182" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F182" s="3" t="s">
         <v>1498</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -10021,7 +10012,7 @@
         <v>491</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>483</v>
@@ -10033,7 +10024,7 @@
         <v>484</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -10041,7 +10032,7 @@
         <v>492</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>489</v>
@@ -10050,10 +10041,10 @@
         <v>441</v>
       </c>
       <c r="E184" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F184" s="3" t="s">
         <v>1500</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -10061,7 +10052,7 @@
         <v>494</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>495</v>
@@ -10073,7 +10064,7 @@
         <v>496</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -10081,7 +10072,7 @@
         <v>497</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>498</v>
@@ -10093,7 +10084,7 @@
         <v>499</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -10101,7 +10092,7 @@
         <v>500</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>501</v>
@@ -10113,7 +10104,7 @@
         <v>502</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -10130,10 +10121,10 @@
         <v>441</v>
       </c>
       <c r="E188" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F188" s="3" t="s">
         <v>1505</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -10153,7 +10144,7 @@
         <v>508</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -10173,7 +10164,7 @@
         <v>511</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -10181,7 +10172,7 @@
         <v>512</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>504</v>
@@ -10193,7 +10184,7 @@
         <v>505</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -10201,7 +10192,7 @@
         <v>513</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>510</v>
@@ -10210,10 +10201,10 @@
         <v>441</v>
       </c>
       <c r="E192" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F192" s="3" t="s">
         <v>1508</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -10221,7 +10212,7 @@
         <v>515</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>516</v>
@@ -10233,7 +10224,7 @@
         <v>517</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -10241,7 +10232,7 @@
         <v>518</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>519</v>
@@ -10253,7 +10244,7 @@
         <v>520</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -10261,7 +10252,7 @@
         <v>521</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>522</v>
@@ -10273,7 +10264,7 @@
         <v>523</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -10281,7 +10272,7 @@
         <v>524</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>525</v>
@@ -10290,10 +10281,10 @@
         <v>441</v>
       </c>
       <c r="E196" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F196" s="3" t="s">
         <v>1513</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -10301,7 +10292,7 @@
         <v>527</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>528</v>
@@ -10313,7 +10304,7 @@
         <v>529</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -10321,7 +10312,7 @@
         <v>530</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>531</v>
@@ -10333,7 +10324,7 @@
         <v>532</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -10341,7 +10332,7 @@
         <v>533</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>534</v>
@@ -10353,7 +10344,7 @@
         <v>535</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -10361,7 +10352,7 @@
         <v>536</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>537</v>
@@ -10373,7 +10364,7 @@
         <v>538</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -10381,7 +10372,7 @@
         <v>539</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>540</v>
@@ -10393,7 +10384,7 @@
         <v>541</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -10413,7 +10404,7 @@
         <v>544</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -10433,7 +10424,7 @@
         <v>547</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -10450,10 +10441,10 @@
         <v>441</v>
       </c>
       <c r="E204" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F204" s="3" t="s">
         <v>1521</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -10461,7 +10452,7 @@
         <v>551</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>543</v>
@@ -10470,10 +10461,10 @@
         <v>441</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -10481,7 +10472,7 @@
         <v>552</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>549</v>
@@ -10490,10 +10481,10 @@
         <v>441</v>
       </c>
       <c r="E206" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F206" s="3" t="s">
         <v>1524</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -10501,7 +10492,7 @@
         <v>554</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>555</v>
@@ -10513,7 +10504,7 @@
         <v>556</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -10521,7 +10512,7 @@
         <v>557</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>558</v>
@@ -10533,7 +10524,7 @@
         <v>559</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -10541,7 +10532,7 @@
         <v>560</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>561</v>
@@ -10553,7 +10544,7 @@
         <v>562</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -10570,10 +10561,10 @@
         <v>441</v>
       </c>
       <c r="E210" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F210" s="3" t="s">
         <v>1529</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -10593,7 +10584,7 @@
         <v>568</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -10610,10 +10601,10 @@
         <v>441</v>
       </c>
       <c r="E212" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F212" s="3" t="s">
         <v>1531</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -10621,7 +10612,7 @@
         <v>572</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>564</v>
@@ -10630,10 +10621,10 @@
         <v>441</v>
       </c>
       <c r="E213" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F213" s="3" t="s">
         <v>1529</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -10641,7 +10632,7 @@
         <v>573</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>570</v>
@@ -10650,10 +10641,10 @@
         <v>441</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F214" s="3" t="s">
         <v>1533</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -10661,7 +10652,7 @@
         <v>575</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>576</v>
@@ -10673,16 +10664,16 @@
         <v>577</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I215" s="13"/>
+        <v>1534</v>
+      </c>
+      <c r="I215" s="12"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>578</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>579</v>
@@ -10694,7 +10685,7 @@
         <v>580</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10702,7 +10693,7 @@
         <v>581</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>582</v>
@@ -10714,7 +10705,7 @@
         <v>583</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10731,13 +10722,13 @@
         <v>441</v>
       </c>
       <c r="E218" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F218" s="3" t="s">
         <v>1538</v>
       </c>
-      <c r="F218" s="3" t="s">
+      <c r="G218" s="6" t="s">
         <v>1539</v>
-      </c>
-      <c r="G218" s="7" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10757,7 +10748,7 @@
         <v>589</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10774,10 +10765,10 @@
         <v>441</v>
       </c>
       <c r="E220" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F220" s="3" t="s">
         <v>1541</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10797,7 +10788,7 @@
         <v>595</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10805,7 +10796,7 @@
         <v>596</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>585</v>
@@ -10814,10 +10805,10 @@
         <v>441</v>
       </c>
       <c r="E222" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F222" s="3" t="s">
         <v>1538</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10825,7 +10816,7 @@
         <v>597</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>591</v>
@@ -10834,10 +10825,10 @@
         <v>441</v>
       </c>
       <c r="E223" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="F223" s="3" t="s">
         <v>1544</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10845,7 +10836,7 @@
         <v>599</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>600</v>
@@ -10857,7 +10848,7 @@
         <v>601</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -10865,7 +10856,7 @@
         <v>602</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>603</v>
@@ -10877,7 +10868,7 @@
         <v>604</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -10885,7 +10876,7 @@
         <v>605</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>606</v>
@@ -10897,7 +10888,7 @@
         <v>607</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -10917,7 +10908,7 @@
         <v>610</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -10937,7 +10928,7 @@
         <v>613</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -10954,10 +10945,10 @@
         <v>441</v>
       </c>
       <c r="E229" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F229" s="3" t="s">
         <v>1549</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -10965,7 +10956,7 @@
         <v>617</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>609</v>
@@ -10977,7 +10968,7 @@
         <v>610</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -10985,7 +10976,7 @@
         <v>618</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>615</v>
@@ -10994,10 +10985,10 @@
         <v>441</v>
       </c>
       <c r="E231" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F231" s="3" t="s">
         <v>1551</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -11005,7 +10996,7 @@
         <v>620</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>621</v>
@@ -11017,7 +11008,7 @@
         <v>622</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -11025,7 +11016,7 @@
         <v>623</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>624</v>
@@ -11037,7 +11028,7 @@
         <v>625</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -11045,7 +11036,7 @@
         <v>626</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>627</v>
@@ -11057,7 +11048,7 @@
         <v>628</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -11077,7 +11068,7 @@
         <v>631</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -11097,7 +11088,7 @@
         <v>634</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -11117,7 +11108,7 @@
         <v>637</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -11125,7 +11116,7 @@
         <v>638</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>630</v>
@@ -11137,7 +11128,7 @@
         <v>631</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -11145,7 +11136,7 @@
         <v>639</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>636</v>
@@ -11154,10 +11145,10 @@
         <v>441</v>
       </c>
       <c r="E239" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F239" s="3" t="s">
         <v>1558</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -11165,7 +11156,7 @@
         <v>641</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>642</v>
@@ -11174,10 +11165,10 @@
         <v>441</v>
       </c>
       <c r="E240" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F240" s="3" t="s">
         <v>1560</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -11185,7 +11176,7 @@
         <v>644</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>645</v>
@@ -11197,7 +11188,7 @@
         <v>646</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -11205,7 +11196,7 @@
         <v>647</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>648</v>
@@ -11217,7 +11208,7 @@
         <v>649</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -11237,7 +11228,7 @@
         <v>652</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -11257,7 +11248,7 @@
         <v>655</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -11277,7 +11268,7 @@
         <v>658</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -11285,7 +11276,7 @@
         <v>659</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>651</v>
@@ -11297,7 +11288,7 @@
         <v>652</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -11305,7 +11296,7 @@
         <v>660</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>657</v>
@@ -11314,10 +11305,10 @@
         <v>441</v>
       </c>
       <c r="E247" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F247" s="3" t="s">
         <v>1566</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -11325,7 +11316,7 @@
         <v>662</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>663</v>
@@ -11337,7 +11328,7 @@
         <v>664</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -11345,7 +11336,7 @@
         <v>665</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>666</v>
@@ -11357,7 +11348,7 @@
         <v>667</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -11365,7 +11356,7 @@
         <v>668</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>669</v>
@@ -11377,7 +11368,7 @@
         <v>670</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -11397,7 +11388,7 @@
         <v>673</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -11417,7 +11408,7 @@
         <v>676</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -11437,7 +11428,7 @@
         <v>679</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -11445,7 +11436,7 @@
         <v>680</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>672</v>
@@ -11457,7 +11448,7 @@
         <v>673</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -11465,7 +11456,7 @@
         <v>681</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>678</v>
@@ -11474,10 +11465,10 @@
         <v>441</v>
       </c>
       <c r="E255" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F255" s="3" t="s">
         <v>1573</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -11485,7 +11476,7 @@
         <v>683</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>684</v>
@@ -11497,7 +11488,7 @@
         <v>685</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -11505,7 +11496,7 @@
         <v>686</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>687</v>
@@ -11517,7 +11508,7 @@
         <v>688</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -11525,7 +11516,7 @@
         <v>689</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>690</v>
@@ -11537,7 +11528,7 @@
         <v>691</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -11557,7 +11548,7 @@
         <v>694</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -11577,7 +11568,7 @@
         <v>697</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -11597,7 +11588,7 @@
         <v>700</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -11605,7 +11596,7 @@
         <v>701</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>693</v>
@@ -11617,7 +11608,7 @@
         <v>694</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -11625,7 +11616,7 @@
         <v>702</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>699</v>
@@ -11634,10 +11625,10 @@
         <v>441</v>
       </c>
       <c r="E263" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F263" s="3" t="s">
         <v>1580</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -11645,7 +11636,7 @@
         <v>704</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>705</v>
@@ -11657,7 +11648,7 @@
         <v>706</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -11665,7 +11656,7 @@
         <v>707</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>708</v>
@@ -11677,7 +11668,7 @@
         <v>709</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -11685,7 +11676,7 @@
         <v>710</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>711</v>
@@ -11697,7 +11688,7 @@
         <v>712</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -11711,13 +11702,13 @@
         <v>714</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>715</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -11737,7 +11728,7 @@
         <v>718</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -11757,7 +11748,7 @@
         <v>721</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -11765,7 +11756,7 @@
         <v>722</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>714</v>
@@ -11777,7 +11768,7 @@
         <v>715</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -11785,7 +11776,7 @@
         <v>723</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>720</v>
@@ -11794,10 +11785,10 @@
         <v>441</v>
       </c>
       <c r="E271" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F271" s="3" t="s">
         <v>1587</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -11805,7 +11796,7 @@
         <v>725</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>726</v>
@@ -11817,7 +11808,7 @@
         <v>727</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -11825,7 +11816,7 @@
         <v>728</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>729</v>
@@ -11837,7 +11828,7 @@
         <v>730</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -11845,7 +11836,7 @@
         <v>731</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>732</v>
@@ -11857,7 +11848,7 @@
         <v>733</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -11865,7 +11856,7 @@
         <v>734</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>735</v>
@@ -11877,7 +11868,7 @@
         <v>736</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -11885,7 +11876,7 @@
         <v>737</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>738</v>
@@ -11897,7 +11888,7 @@
         <v>739</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -11905,7 +11896,7 @@
         <v>740</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>741</v>
@@ -11917,7 +11908,7 @@
         <v>733</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -11925,19 +11916,19 @@
         <v>742</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>743</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>744</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -11948,16 +11939,16 @@
         <v>1352</v>
       </c>
       <c r="C279" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D279" s="3" t="s">
         <v>1596</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="E279" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="F279" s="3" t="s">
         <v>1598</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -11977,7 +11968,7 @@
         <v>751</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -11991,24 +11982,24 @@
         <v>753</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>754</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>747</v>
@@ -12017,7 +12008,7 @@
         <v>748</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -12025,7 +12016,7 @@
         <v>757</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>746</v>
@@ -12034,10 +12025,10 @@
         <v>747</v>
       </c>
       <c r="E283" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F283" s="3" t="s">
         <v>1598</v>
-      </c>
-      <c r="F283" s="3" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -12045,7 +12036,7 @@
         <v>758</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>753</v>
@@ -12054,10 +12045,10 @@
         <v>747</v>
       </c>
       <c r="E284" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F284" s="3" t="s">
         <v>1604</v>
-      </c>
-      <c r="F284" s="3" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -12065,7 +12056,7 @@
         <v>760</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>761</v>
@@ -12077,7 +12068,7 @@
         <v>762</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -12085,7 +12076,7 @@
         <v>763</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>764</v>
@@ -12094,10 +12085,10 @@
         <v>747</v>
       </c>
       <c r="E286" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F286" s="3" t="s">
         <v>1607</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>1608</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -12105,7 +12096,7 @@
         <v>766</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>767</v>
@@ -12117,7 +12108,7 @@
         <v>768</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -12134,10 +12125,10 @@
         <v>747</v>
       </c>
       <c r="E288" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F288" s="3" t="s">
         <v>1610</v>
-      </c>
-      <c r="F288" s="3" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -12157,7 +12148,7 @@
         <v>774</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -12177,18 +12168,18 @@
         <v>777</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>747</v>
@@ -12197,7 +12188,7 @@
         <v>771</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -12205,19 +12196,19 @@
         <v>780</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>770</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>771</v>
       </c>
       <c r="F292" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -12225,7 +12216,7 @@
         <v>781</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>776</v>
@@ -12234,10 +12225,10 @@
         <v>747</v>
       </c>
       <c r="E293" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F293" s="3" t="s">
         <v>1616</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -12245,7 +12236,7 @@
         <v>783</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>784</v>
@@ -12257,7 +12248,7 @@
         <v>785</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -12265,7 +12256,7 @@
         <v>786</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>787</v>
@@ -12277,7 +12268,7 @@
         <v>788</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -12285,7 +12276,7 @@
         <v>789</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>790</v>
@@ -12297,7 +12288,7 @@
         <v>791</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -12314,10 +12305,10 @@
         <v>747</v>
       </c>
       <c r="E297" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F297" s="3" t="s">
         <v>1621</v>
-      </c>
-      <c r="F297" s="3" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -12337,7 +12328,7 @@
         <v>797</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -12357,7 +12348,7 @@
         <v>800</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -12365,7 +12356,7 @@
         <v>801</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>793</v>
@@ -12377,7 +12368,7 @@
         <v>794</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -12385,7 +12376,7 @@
         <v>802</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>799</v>
@@ -12394,10 +12385,10 @@
         <v>747</v>
       </c>
       <c r="E301" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F301" s="3" t="s">
         <v>1624</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -12405,7 +12396,7 @@
         <v>804</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>805</v>
@@ -12417,7 +12408,7 @@
         <v>806</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -12425,7 +12416,7 @@
         <v>807</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>808</v>
@@ -12437,7 +12428,7 @@
         <v>809</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -12445,7 +12436,7 @@
         <v>810</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>811</v>
@@ -12457,7 +12448,7 @@
         <v>812</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -12474,10 +12465,10 @@
         <v>747</v>
       </c>
       <c r="E305" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F305" s="3" t="s">
         <v>1629</v>
-      </c>
-      <c r="F305" s="3" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -12497,7 +12488,7 @@
         <v>818</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -12517,7 +12508,7 @@
         <v>821</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -12525,7 +12516,7 @@
         <v>822</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>814</v>
@@ -12537,7 +12528,7 @@
         <v>815</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -12545,7 +12536,7 @@
         <v>823</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>820</v>
@@ -12554,10 +12545,10 @@
         <v>747</v>
       </c>
       <c r="E309" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F309" s="3" t="s">
         <v>1632</v>
-      </c>
-      <c r="F309" s="3" t="s">
-        <v>1633</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -12565,7 +12556,7 @@
         <v>825</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>826</v>
@@ -12577,7 +12568,7 @@
         <v>827</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -12585,7 +12576,7 @@
         <v>828</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>829</v>
@@ -12597,7 +12588,7 @@
         <v>830</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -12605,7 +12596,7 @@
         <v>831</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>832</v>
@@ -12617,7 +12608,7 @@
         <v>833</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -12634,10 +12625,10 @@
         <v>747</v>
       </c>
       <c r="E313" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F313" s="3" t="s">
         <v>1637</v>
-      </c>
-      <c r="F313" s="3" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -12657,7 +12648,7 @@
         <v>839</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -12677,18 +12668,18 @@
         <v>842</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>747</v>
@@ -12705,7 +12696,7 @@
         <v>845</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>835</v>
@@ -12714,10 +12705,10 @@
         <v>747</v>
       </c>
       <c r="E317" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="F317" s="3" t="s">
         <v>1637</v>
-      </c>
-      <c r="F317" s="3" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -12725,7 +12716,7 @@
         <v>846</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>841</v>
@@ -12734,10 +12725,10 @@
         <v>747</v>
       </c>
       <c r="E318" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F318" s="3" t="s">
         <v>1642</v>
-      </c>
-      <c r="F318" s="3" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -12745,7 +12736,7 @@
         <v>848</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>849</v>
@@ -12757,7 +12748,7 @@
         <v>850</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -12765,7 +12756,7 @@
         <v>851</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>852</v>
@@ -12777,7 +12768,7 @@
         <v>853</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -12785,7 +12776,7 @@
         <v>854</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>855</v>
@@ -12797,7 +12788,7 @@
         <v>856</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -12814,10 +12805,10 @@
         <v>747</v>
       </c>
       <c r="E322" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F322" s="3" t="s">
         <v>1647</v>
-      </c>
-      <c r="F322" s="3" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -12837,7 +12828,7 @@
         <v>862</v>
       </c>
       <c r="F323" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -12857,7 +12848,7 @@
         <v>865</v>
       </c>
       <c r="F324" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -12865,7 +12856,7 @@
         <v>866</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>858</v>
@@ -12874,10 +12865,10 @@
         <v>747</v>
       </c>
       <c r="E325" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F325" s="3" t="s">
         <v>1647</v>
-      </c>
-      <c r="F325" s="3" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -12885,7 +12876,7 @@
         <v>867</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>864</v>
@@ -12894,10 +12885,10 @@
         <v>747</v>
       </c>
       <c r="E326" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="F326" s="3" t="s">
         <v>1650</v>
-      </c>
-      <c r="F326" s="3" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -12905,7 +12896,7 @@
         <v>869</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>870</v>
@@ -12917,7 +12908,7 @@
         <v>871</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -12925,7 +12916,7 @@
         <v>872</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>873</v>
@@ -12937,7 +12928,7 @@
         <v>874</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -12945,7 +12936,7 @@
         <v>875</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>876</v>
@@ -12957,7 +12948,7 @@
         <v>877</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -12974,10 +12965,10 @@
         <v>747</v>
       </c>
       <c r="E330" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F330" s="3" t="s">
         <v>1655</v>
-      </c>
-      <c r="F330" s="3" t="s">
-        <v>1656</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -12997,7 +12988,7 @@
         <v>883</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -13017,7 +13008,7 @@
         <v>886</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -13025,7 +13016,7 @@
         <v>887</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>879</v>
@@ -13037,7 +13028,7 @@
         <v>880</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -13045,7 +13036,7 @@
         <v>888</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>885</v>
@@ -13054,10 +13045,10 @@
         <v>747</v>
       </c>
       <c r="E334" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F334" s="3" t="s">
         <v>1658</v>
-      </c>
-      <c r="F334" s="3" t="s">
-        <v>1659</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -13065,7 +13056,7 @@
         <v>890</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>891</v>
@@ -13077,7 +13068,7 @@
         <v>892</v>
       </c>
       <c r="F335" s="3" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -13085,7 +13076,7 @@
         <v>893</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>894</v>
@@ -13097,7 +13088,7 @@
         <v>895</v>
       </c>
       <c r="F336" s="3" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
@@ -13105,7 +13096,7 @@
         <v>896</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>897</v>
@@ -13117,7 +13108,7 @@
         <v>898</v>
       </c>
       <c r="F337" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
@@ -13134,13 +13125,13 @@
         <v>747</v>
       </c>
       <c r="E338" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F338" s="3" t="s">
         <v>1663</v>
       </c>
-      <c r="F338" s="3" t="s">
+      <c r="G338" s="6" t="s">
         <v>1664</v>
-      </c>
-      <c r="G338" s="7" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
@@ -13160,7 +13151,7 @@
         <v>904</v>
       </c>
       <c r="F339" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
@@ -13177,10 +13168,10 @@
         <v>747</v>
       </c>
       <c r="E340" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F340" s="3" t="s">
         <v>1666</v>
-      </c>
-      <c r="F340" s="3" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
@@ -13208,7 +13199,7 @@
         <v>910</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>900</v>
@@ -13220,7 +13211,7 @@
         <v>901</v>
       </c>
       <c r="F342" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
@@ -13228,7 +13219,7 @@
         <v>911</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>906</v>
@@ -13240,7 +13231,7 @@
         <v>912</v>
       </c>
       <c r="F343" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
@@ -13248,7 +13239,7 @@
         <v>913</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>914</v>
@@ -13260,7 +13251,7 @@
         <v>915</v>
       </c>
       <c r="F344" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
@@ -13268,7 +13259,7 @@
         <v>916</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>917</v>
@@ -13280,7 +13271,7 @@
         <v>918</v>
       </c>
       <c r="F345" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
@@ -13288,7 +13279,7 @@
         <v>919</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>920</v>
@@ -13300,7 +13291,7 @@
         <v>921</v>
       </c>
       <c r="F346" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
@@ -13317,10 +13308,10 @@
         <v>747</v>
       </c>
       <c r="E347" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="F347" s="3" t="s">
         <v>1672</v>
-      </c>
-      <c r="F347" s="3" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
@@ -13340,7 +13331,7 @@
         <v>927</v>
       </c>
       <c r="F348" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
@@ -13357,10 +13348,10 @@
         <v>747</v>
       </c>
       <c r="E349" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F349" s="3" t="s">
         <v>1674</v>
-      </c>
-      <c r="F349" s="3" t="s">
-        <v>1675</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
@@ -13368,7 +13359,7 @@
         <v>931</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>923</v>
@@ -13380,7 +13371,7 @@
         <v>924</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
@@ -13388,7 +13379,7 @@
         <v>932</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>929</v>
@@ -13397,10 +13388,10 @@
         <v>747</v>
       </c>
       <c r="E351" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F351" s="3" t="s">
         <v>1676</v>
-      </c>
-      <c r="F351" s="3" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
@@ -13408,7 +13399,7 @@
         <v>934</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>935</v>
@@ -13420,7 +13411,7 @@
         <v>936</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -13428,7 +13419,7 @@
         <v>937</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>938</v>
@@ -13440,7 +13431,7 @@
         <v>939</v>
       </c>
       <c r="F353" s="3" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -13448,7 +13439,7 @@
         <v>940</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>941</v>
@@ -13460,7 +13451,7 @@
         <v>942</v>
       </c>
       <c r="F354" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -13480,7 +13471,7 @@
         <v>945</v>
       </c>
       <c r="F355" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -13500,7 +13491,7 @@
         <v>948</v>
       </c>
       <c r="F356" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -13517,10 +13508,10 @@
         <v>747</v>
       </c>
       <c r="E357" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="F357" s="3" t="s">
         <v>1682</v>
-      </c>
-      <c r="F357" s="3" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -13528,7 +13519,7 @@
         <v>952</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>944</v>
@@ -13537,10 +13528,10 @@
         <v>747</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -13548,7 +13539,7 @@
         <v>953</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>950</v>
@@ -13560,7 +13551,7 @@
         <v>954</v>
       </c>
       <c r="F359" s="3" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -13568,7 +13559,7 @@
         <v>955</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>956</v>
@@ -13580,7 +13571,7 @@
         <v>957</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -13588,7 +13579,7 @@
         <v>958</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>959</v>
@@ -13600,7 +13591,7 @@
         <v>960</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -13608,7 +13599,7 @@
         <v>961</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>962</v>
@@ -13620,7 +13611,7 @@
         <v>963</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -13640,7 +13631,7 @@
         <v>966</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -13660,7 +13651,7 @@
         <v>969</v>
       </c>
       <c r="F364" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -13677,10 +13668,10 @@
         <v>747</v>
       </c>
       <c r="E365" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F365" s="3" t="s">
         <v>1690</v>
-      </c>
-      <c r="F365" s="3" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -13688,7 +13679,7 @@
         <v>973</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>965</v>
@@ -13697,10 +13688,10 @@
         <v>747</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F366" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -13708,7 +13699,7 @@
         <v>974</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>971</v>
@@ -13717,10 +13708,10 @@
         <v>747</v>
       </c>
       <c r="E367" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="F367" s="3" t="s">
         <v>1693</v>
-      </c>
-      <c r="F367" s="3" t="s">
-        <v>1694</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -13728,7 +13719,7 @@
         <v>976</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>977</v>
@@ -13740,7 +13731,7 @@
         <v>978</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -13748,7 +13739,7 @@
         <v>979</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>980</v>
@@ -13760,7 +13751,7 @@
         <v>981</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -13768,7 +13759,7 @@
         <v>982</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>983</v>
@@ -13780,7 +13771,7 @@
         <v>984</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -13797,10 +13788,10 @@
         <v>747</v>
       </c>
       <c r="E371" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="F371" s="3" t="s">
         <v>1698</v>
-      </c>
-      <c r="F371" s="3" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -13814,13 +13805,13 @@
         <v>989</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>990</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -13837,15 +13828,15 @@
         <v>747</v>
       </c>
       <c r="E373" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F373" s="3" t="s">
         <v>1700</v>
-      </c>
-      <c r="F373" s="3" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>1352</v>
@@ -13860,7 +13851,7 @@
         <v>996</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -13868,7 +13859,7 @@
         <v>997</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>986</v>
@@ -13880,7 +13871,7 @@
         <v>987</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -13888,7 +13879,7 @@
         <v>998</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>992</v>
@@ -13897,10 +13888,10 @@
         <v>747</v>
       </c>
       <c r="E376" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F376" s="3" t="s">
         <v>1703</v>
-      </c>
-      <c r="F376" s="3" t="s">
-        <v>1704</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -13908,7 +13899,7 @@
         <v>1000</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>1001</v>
@@ -13920,7 +13911,7 @@
         <v>1002</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -13928,7 +13919,7 @@
         <v>1003</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>1004</v>
@@ -13940,7 +13931,7 @@
         <v>1005</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -13948,7 +13939,7 @@
         <v>1006</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>1007</v>
@@ -13960,7 +13951,7 @@
         <v>1008</v>
       </c>
       <c r="F379" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -13977,10 +13968,10 @@
         <v>747</v>
       </c>
       <c r="E380" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F380" s="3" t="s">
         <v>1708</v>
-      </c>
-      <c r="F380" s="3" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -14000,7 +13991,7 @@
         <v>1014</v>
       </c>
       <c r="F381" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -14020,7 +14011,7 @@
         <v>1017</v>
       </c>
       <c r="F382" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -14037,10 +14028,10 @@
         <v>747</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F383" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -14048,7 +14039,7 @@
         <v>1021</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>1010</v>
@@ -14057,10 +14048,10 @@
         <v>747</v>
       </c>
       <c r="E384" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="F384" s="3" t="s">
         <v>1708</v>
-      </c>
-      <c r="F384" s="3" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -14068,7 +14059,7 @@
         <v>1022</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>1016</v>
@@ -14077,10 +14068,10 @@
         <v>747</v>
       </c>
       <c r="E385" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="F385" s="3" t="s">
         <v>1712</v>
-      </c>
-      <c r="F385" s="3" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -14088,7 +14079,7 @@
         <v>1024</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>1025</v>
@@ -14100,7 +14091,7 @@
         <v>1026</v>
       </c>
       <c r="F386" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -14108,7 +14099,7 @@
         <v>1027</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>1028</v>
@@ -14120,7 +14111,7 @@
         <v>1029</v>
       </c>
       <c r="F387" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -14128,7 +14119,7 @@
         <v>1030</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>1031</v>
@@ -14140,7 +14131,7 @@
         <v>1032</v>
       </c>
       <c r="F388" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -14160,7 +14151,7 @@
         <v>1035</v>
       </c>
       <c r="F389" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -14180,7 +14171,7 @@
         <v>1038</v>
       </c>
       <c r="F390" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -14200,7 +14191,7 @@
         <v>1041</v>
       </c>
       <c r="F391" s="3" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -14208,7 +14199,7 @@
         <v>1042</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>1034</v>
@@ -14217,10 +14208,10 @@
         <v>747</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="F392" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -14228,7 +14219,7 @@
         <v>1043</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>1040</v>
@@ -14237,10 +14228,10 @@
         <v>747</v>
       </c>
       <c r="E393" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="F393" s="3" t="s">
         <v>1720</v>
-      </c>
-      <c r="F393" s="3" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -14248,7 +14239,7 @@
         <v>1045</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>1046</v>
@@ -14260,7 +14251,7 @@
         <v>1047</v>
       </c>
       <c r="F394" s="3" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -14268,7 +14259,7 @@
         <v>1048</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>1049</v>
@@ -14280,7 +14271,7 @@
         <v>1050</v>
       </c>
       <c r="F395" s="3" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -14288,24 +14279,24 @@
         <v>1051</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>1052</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="F396" s="3" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>1352</v>
@@ -14314,13 +14305,13 @@
         <v>1055</v>
       </c>
       <c r="D397" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E397" s="1" t="s">
         <v>1727</v>
       </c>
-      <c r="E397" s="1" t="s">
+      <c r="F397" s="3" t="s">
         <v>1728</v>
-      </c>
-      <c r="F397" s="3" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -14337,10 +14328,10 @@
         <v>1056</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="F398" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -14357,10 +14348,10 @@
         <v>1056</v>
       </c>
       <c r="E399" s="1" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F399" s="3" t="s">
         <v>1731</v>
-      </c>
-      <c r="F399" s="3" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -14368,7 +14359,7 @@
         <v>1064</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>1055</v>
@@ -14380,7 +14371,7 @@
         <v>1057</v>
       </c>
       <c r="F400" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.3">
@@ -14388,7 +14379,7 @@
         <v>1065</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>1062</v>
@@ -14397,10 +14388,10 @@
         <v>1056</v>
       </c>
       <c r="E401" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F401" s="3" t="s">
         <v>1733</v>
-      </c>
-      <c r="F401" s="3" t="s">
-        <v>1734</v>
       </c>
       <c r="G401" s="4"/>
     </row>
@@ -14409,7 +14400,7 @@
         <v>1067</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>1068</v>
@@ -14421,7 +14412,7 @@
         <v>1069</v>
       </c>
       <c r="F402" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.3">
@@ -14429,7 +14420,7 @@
         <v>1070</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>1071</v>
@@ -14441,7 +14432,7 @@
         <v>1072</v>
       </c>
       <c r="F403" s="3" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.3">
@@ -14449,7 +14440,7 @@
         <v>1073</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>1074</v>
@@ -14461,27 +14452,27 @@
         <v>1075</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="E405" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F405" s="3" t="s">
         <v>1740</v>
-      </c>
-      <c r="F405" s="3" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.3">
@@ -14492,16 +14483,16 @@
         <v>1352</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>1056</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F406" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.3">
@@ -14521,7 +14512,7 @@
         <v>1084</v>
       </c>
       <c r="F407" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="G407" s="4"/>
     </row>
@@ -14530,19 +14521,19 @@
         <v>1085</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>1077</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E408" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F408" s="3" t="s">
         <v>1740</v>
-      </c>
-      <c r="F408" s="3" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.3">
@@ -14550,7 +14541,7 @@
         <v>1086</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>1083</v>
@@ -14559,18 +14550,18 @@
         <v>1056</v>
       </c>
       <c r="E409" s="1" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F409" s="3" t="s">
         <v>1745</v>
-      </c>
-      <c r="F409" s="3" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>1089</v>
@@ -14579,10 +14570,10 @@
         <v>1056</v>
       </c>
       <c r="E410" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F410" s="3" t="s">
         <v>1748</v>
-      </c>
-      <c r="F410" s="3" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.3">
@@ -14590,7 +14581,7 @@
         <v>1091</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>1092</v>
@@ -14602,7 +14593,7 @@
         <v>1093</v>
       </c>
       <c r="F411" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.3">
@@ -14610,7 +14601,7 @@
         <v>1094</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>1095</v>
@@ -14619,10 +14610,10 @@
         <v>1056</v>
       </c>
       <c r="E412" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F412" s="3" t="s">
         <v>1751</v>
-      </c>
-      <c r="F412" s="3" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.3">
@@ -14636,13 +14627,13 @@
         <v>1098</v>
       </c>
       <c r="D413" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E413" s="1" t="s">
         <v>1753</v>
       </c>
-      <c r="E413" s="1" t="s">
+      <c r="F413" s="3" t="s">
         <v>1754</v>
-      </c>
-      <c r="F413" s="3" t="s">
-        <v>1755</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.3">
@@ -14656,13 +14647,13 @@
         <v>1101</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>1102</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.3">
@@ -14676,33 +14667,33 @@
         <v>1104</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="F415" s="3" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="3" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C416" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E416" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="D416" s="3" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E416" s="1" t="s">
+      <c r="F416" s="3" t="s">
         <v>1759</v>
-      </c>
-      <c r="F416" s="3" t="s">
-        <v>1760</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -14710,19 +14701,19 @@
         <v>1109</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>1098</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -14730,19 +14721,19 @@
         <v>1110</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>1104</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E418" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F418" s="3" t="s">
         <v>1761</v>
-      </c>
-      <c r="F418" s="3" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -14750,19 +14741,19 @@
         <v>1112</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>1113</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="F419" s="3" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -14770,19 +14761,19 @@
         <v>1115</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>1116</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="F420" s="3" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -14790,24 +14781,24 @@
         <v>1118</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>1119</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>1120</v>
       </c>
       <c r="F421" s="3" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>1352</v>
@@ -14816,13 +14807,13 @@
         <v>1122</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="F422" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -14842,12 +14833,12 @@
         <v>1126</v>
       </c>
       <c r="F423" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>1352</v>
@@ -14862,7 +14853,7 @@
         <v>1129</v>
       </c>
       <c r="F424" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -14870,7 +14861,7 @@
         <v>1130</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>1122</v>
@@ -14882,7 +14873,7 @@
         <v>1123</v>
       </c>
       <c r="F425" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -14890,7 +14881,7 @@
         <v>1131</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>1128</v>
@@ -14902,7 +14893,7 @@
         <v>1132</v>
       </c>
       <c r="F426" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -14910,7 +14901,7 @@
         <v>1133</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>1134</v>
@@ -14922,7 +14913,7 @@
         <v>1135</v>
       </c>
       <c r="F427" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -14930,7 +14921,7 @@
         <v>1136</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>1137</v>
@@ -14939,10 +14930,10 @@
         <v>1056</v>
       </c>
       <c r="E428" s="1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F428" s="3" t="s">
         <v>1772</v>
-      </c>
-      <c r="F428" s="3" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -14950,7 +14941,7 @@
         <v>1139</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>1140</v>
@@ -14962,12 +14953,12 @@
         <v>1141</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="3" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>1352</v>
@@ -14976,18 +14967,18 @@
         <v>1143</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="F430" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="3" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>1352</v>
@@ -14996,13 +14987,13 @@
         <v>1146</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="F431" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -15016,18 +15007,18 @@
         <v>1149</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E432" s="1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F432" s="3" t="s">
         <v>1778</v>
-      </c>
-      <c r="F432" s="3" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="3" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>1352</v>
@@ -15036,13 +15027,13 @@
         <v>1152</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E433" s="1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F433" s="3" t="s">
         <v>1781</v>
-      </c>
-      <c r="F433" s="3" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -15050,19 +15041,19 @@
         <v>1154</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>1143</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="F434" s="3" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -15070,19 +15061,19 @@
         <v>1155</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>1149</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E435" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F435" s="3" t="s">
         <v>1783</v>
-      </c>
-      <c r="F435" s="3" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -15090,19 +15081,19 @@
         <v>1157</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>1158</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>1159</v>
       </c>
       <c r="F436" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -15110,19 +15101,19 @@
         <v>1160</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>1161</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>1162</v>
       </c>
       <c r="F437" s="3" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -15130,464 +15121,464 @@
         <v>1163</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>1164</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>1165</v>
       </c>
       <c r="F438" s="3" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="3" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C439" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D439" s="3" t="s">
         <v>1789</v>
       </c>
-      <c r="D439" s="3" t="s">
+      <c r="E439" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="E439" s="1" t="s">
+      <c r="F439" s="3" t="s">
         <v>1791</v>
-      </c>
-      <c r="F439" s="3" t="s">
-        <v>1792</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="3" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C440" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E440" s="1" t="s">
         <v>1794</v>
       </c>
-      <c r="D440" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E440" s="1" t="s">
-        <v>1795</v>
-      </c>
       <c r="F440" s="3" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="3" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C441" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E441" s="1" t="s">
         <v>1797</v>
       </c>
-      <c r="D441" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E441" s="1" t="s">
+      <c r="F441" s="3" t="s">
         <v>1798</v>
-      </c>
-      <c r="F441" s="3" t="s">
-        <v>1799</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C442" s="3" t="s">
         <v>1800</v>
       </c>
-      <c r="B442" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C442" s="3" t="s">
+      <c r="D442" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E442" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="D442" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E442" s="1" t="s">
+      <c r="F442" s="3" t="s">
         <v>1802</v>
-      </c>
-      <c r="F442" s="3" t="s">
-        <v>1803</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C443" s="3" t="s">
         <v>1804</v>
       </c>
-      <c r="B443" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C443" s="3" t="s">
+      <c r="D443" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E443" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="D443" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E443" s="1" t="s">
+      <c r="F443" s="3" t="s">
         <v>1806</v>
-      </c>
-      <c r="F443" s="3" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C444" s="3" t="s">
         <v>1808</v>
       </c>
-      <c r="B444" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C444" s="3" t="s">
+      <c r="D444" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E444" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="D444" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E444" s="1" t="s">
+      <c r="F444" s="3" t="s">
         <v>1810</v>
-      </c>
-      <c r="F444" s="3" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="3" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C445" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E445" s="1" t="s">
         <v>1813</v>
       </c>
-      <c r="D445" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E445" s="1" t="s">
+      <c r="F445" s="3" t="s">
         <v>1814</v>
-      </c>
-      <c r="F445" s="3" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="3" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C446" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E446" s="1" t="s">
         <v>1817</v>
       </c>
-      <c r="D446" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E446" s="1" t="s">
-        <v>1818</v>
-      </c>
       <c r="F446" s="3" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="3" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C447" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E447" s="1" t="s">
         <v>1820</v>
       </c>
-      <c r="D447" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E447" s="1" t="s">
+      <c r="F447" s="3" t="s">
         <v>1821</v>
-      </c>
-      <c r="F447" s="3" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="3" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C448" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E448" s="1" t="s">
         <v>1813</v>
       </c>
-      <c r="D448" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E448" s="1" t="s">
+      <c r="F448" s="3" t="s">
         <v>1814</v>
-      </c>
-      <c r="F448" s="3" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E449" s="1" t="s">
         <v>1824</v>
       </c>
-      <c r="B449" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C449" s="3" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E449" s="1" t="s">
+      <c r="F449" s="3" t="s">
         <v>1825</v>
-      </c>
-      <c r="F449" s="3" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C450" s="3" t="s">
         <v>1827</v>
       </c>
-      <c r="B450" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C450" s="3" t="s">
+      <c r="D450" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E450" s="1" t="s">
         <v>1828</v>
       </c>
-      <c r="D450" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E450" s="1" t="s">
+      <c r="F450" s="3" t="s">
         <v>1829</v>
-      </c>
-      <c r="F450" s="3" t="s">
-        <v>1830</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C451" s="3" t="s">
         <v>1831</v>
       </c>
-      <c r="B451" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C451" s="3" t="s">
+      <c r="D451" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E451" s="1" t="s">
         <v>1832</v>
       </c>
-      <c r="D451" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E451" s="1" t="s">
+      <c r="F451" s="3" t="s">
         <v>1833</v>
-      </c>
-      <c r="F451" s="3" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="3" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>1835</v>
       </c>
-      <c r="B452" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C452" s="3" t="s">
+      <c r="D452" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E452" s="1" t="s">
         <v>1836</v>
       </c>
-      <c r="D452" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E452" s="1" t="s">
+      <c r="F452" s="3" t="s">
         <v>1837</v>
-      </c>
-      <c r="F452" s="3" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C453" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E453" s="1" t="s">
         <v>1840</v>
       </c>
-      <c r="D453" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E453" s="1" t="s">
+      <c r="F453" s="3" t="s">
         <v>1841</v>
-      </c>
-      <c r="F453" s="3" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="3" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C454" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E454" s="1" t="s">
         <v>1844</v>
       </c>
-      <c r="D454" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E454" s="1" t="s">
-        <v>1845</v>
-      </c>
       <c r="F454" s="3" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="3" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="C455" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E455" s="1" t="s">
         <v>1847</v>
       </c>
-      <c r="D455" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E455" s="1" t="s">
+      <c r="F455" s="3" t="s">
         <v>1848</v>
-      </c>
-      <c r="F455" s="3" t="s">
-        <v>1849</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C456" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E456" s="1" t="s">
         <v>1840</v>
       </c>
-      <c r="D456" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E456" s="1" t="s">
+      <c r="F456" s="3" t="s">
         <v>1841</v>
-      </c>
-      <c r="F456" s="3" t="s">
-        <v>1842</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E457" s="1" t="s">
         <v>1851</v>
       </c>
-      <c r="B457" s="3" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C457" s="3" t="s">
-        <v>1847</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E457" s="1" t="s">
+      <c r="F457" s="3" t="s">
         <v>1852</v>
-      </c>
-      <c r="F457" s="3" t="s">
-        <v>1853</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="3" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C458" s="3" t="s">
         <v>1854</v>
       </c>
-      <c r="B458" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C458" s="3" t="s">
+      <c r="D458" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E458" s="1" t="s">
         <v>1855</v>
       </c>
-      <c r="D458" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E458" s="1" t="s">
+      <c r="F458" s="3" t="s">
         <v>1856</v>
-      </c>
-      <c r="F458" s="3" t="s">
-        <v>1857</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C459" s="3" t="s">
         <v>1858</v>
       </c>
-      <c r="B459" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C459" s="3" t="s">
+      <c r="D459" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E459" s="1" t="s">
         <v>1859</v>
       </c>
-      <c r="D459" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E459" s="1" t="s">
+      <c r="F459" s="3" t="s">
         <v>1860</v>
-      </c>
-      <c r="F459" s="3" t="s">
-        <v>1861</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C460" s="3" t="s">
         <v>1862</v>
       </c>
-      <c r="B460" s="3" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C460" s="3" t="s">
+      <c r="D460" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="E460" s="1" t="s">
         <v>1863</v>
       </c>
-      <c r="D460" s="3" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E460" s="1" t="s">
+      <c r="F460" s="3" t="s">
         <v>1864</v>
-      </c>
-      <c r="F460" s="3" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="3" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>1352</v>
@@ -15596,13 +15587,13 @@
         <v>122</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E461" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F461" s="3" t="s">
         <v>1867</v>
-      </c>
-      <c r="F461" s="3" t="s">
-        <v>1868</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -15619,10 +15610,10 @@
         <v>441</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="F462" s="3" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -15642,7 +15633,7 @@
         <v>1172</v>
       </c>
       <c r="F463" s="3" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -15662,7 +15653,7 @@
         <v>1168</v>
       </c>
       <c r="F464" s="3" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -15682,7 +15673,7 @@
         <v>1177</v>
       </c>
       <c r="F465" s="3" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -15702,7 +15693,7 @@
         <v>1179</v>
       </c>
       <c r="F466" s="3" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -15722,7 +15713,7 @@
         <v>1181</v>
       </c>
       <c r="F467" s="3" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -15742,7 +15733,7 @@
         <v>1183</v>
       </c>
       <c r="F468" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -15762,7 +15753,7 @@
         <v>1185</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -15782,7 +15773,7 @@
         <v>1187</v>
       </c>
       <c r="F470" s="3" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -15802,7 +15793,7 @@
         <v>1183</v>
       </c>
       <c r="F471" s="3" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -15822,7 +15813,7 @@
         <v>1190</v>
       </c>
       <c r="F472" s="3" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -15842,7 +15833,7 @@
         <v>1192</v>
       </c>
       <c r="F473" s="3" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -15862,7 +15853,7 @@
         <v>1194</v>
       </c>
       <c r="F474" s="3" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -15879,10 +15870,10 @@
         <v>441</v>
       </c>
       <c r="E475" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="F475" s="3" t="s">
         <v>1879</v>
-      </c>
-      <c r="F475" s="3" t="s">
-        <v>1880</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -15899,10 +15890,10 @@
         <v>441</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="F476" s="3" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -15922,7 +15913,7 @@
         <v>1200</v>
       </c>
       <c r="F477" s="3" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -15942,7 +15933,7 @@
         <v>1196</v>
       </c>
       <c r="F478" s="3" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -15962,7 +15953,7 @@
         <v>1203</v>
       </c>
       <c r="F479" s="3" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -15982,7 +15973,7 @@
         <v>1205</v>
       </c>
       <c r="F480" s="3" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -16002,7 +15993,7 @@
         <v>1207</v>
       </c>
       <c r="F481" s="3" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
   </sheetData>
